--- a/test4.xlsx
+++ b/test4.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="test" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="test2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="test3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="test5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="test54" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test55" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test56" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="test57" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="test5" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,201 +686,54 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="5" t="n"/>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="5" t="n"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="5" t="n"/>
-      <c r="C4" s="5" t="n"/>
-      <c r="D4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>dicta</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>dictb</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>dicta</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>dictb</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>dictc</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>dictd</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>dicta</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>dictb</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>dictc</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>dictd</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -899,4 +753,37 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>